--- a/KiCad/Battery_Board/BOM.xlsx
+++ b/KiCad/Battery_Board/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>REFDES</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>CUSTOM(JST-2)</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>GH36W0</t>
+  </si>
+  <si>
+    <t>642-GH36WW10001</t>
+  </si>
+  <si>
+    <t>Through-Hole Switch</t>
+  </si>
+  <si>
+    <t>CUSTOM(SWITCH_SPST)</t>
   </si>
 </sst>
 </file>
@@ -660,11 +675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +794,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:B17" si="0">1+LEN(A3)-LEN(SUBSTITUTE(A3,",",""))</f>
+        <f t="shared" ref="B3:B18" si="0">1+LEN(A3)-LEN(SUBSTITUTE(A3,",",""))</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -805,22 +820,22 @@
         <v>3</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J16" si="2">I3-H3</f>
+        <f t="shared" ref="J3:J17" si="2">I3-H3</f>
         <v>2</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K16" si="3">FLOOR(I3/H3,1)</f>
+        <f t="shared" ref="K3:K17" si="3">FLOOR(I3/H3,1)</f>
         <v>3</v>
       </c>
       <c r="L3" s="6">
         <v>2.69</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" ref="M3:M16" si="4">H3*L3</f>
+        <f t="shared" ref="M3:M17" si="4">H3*L3</f>
         <v>2.69</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N16" si="5">L3*I3</f>
+        <f t="shared" ref="N3:N17" si="5">L3*I3</f>
         <v>8.07</v>
       </c>
     </row>
@@ -1324,171 +1339,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>5.99</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="4"/>
+        <v>5.99</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="5"/>
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>0.95</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M15" s="6">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="6">
         <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="6">
         <v>0.69</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M16" s="6">
         <f t="shared" si="4"/>
         <v>0.69</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="6">
         <f t="shared" si="5"/>
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L17" s="6">
         <v>9.9499999999999993</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M17" s="6">
         <f t="shared" si="4"/>
         <v>9.9499999999999993</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N17" s="6">
         <f t="shared" si="5"/>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M17" s="1">
-        <f>SUM(M2:M16)</f>
-        <v>19.123999999999999</v>
-      </c>
-      <c r="N17" s="1">
-        <f>SUM(N2:N16)</f>
-        <v>51</v>
+      <c r="M18" s="1">
+        <f>SUM(M2:M17)</f>
+        <v>25.113999999999997</v>
+      </c>
+      <c r="N18" s="1">
+        <f>SUM(N2:N17)</f>
+        <v>62.97999999999999</v>
       </c>
     </row>
   </sheetData>
